--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="CastConfigProto" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,12 @@
     <t>*HitInfos</t>
   </si>
   <si>
+    <t>CastStartAnimation</t>
+  </si>
+  <si>
+    <t>CastHitAnimation</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -77,9 +83,15 @@
     <t>list,CastHitInfo</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>$type</t>
   </si>
   <si>
@@ -137,6 +149,12 @@
     <t>命中信息</t>
   </si>
   <si>
+    <t>技能起手动画</t>
+  </si>
+  <si>
+    <t>技能受击动画</t>
+  </si>
+  <si>
     <t>单体</t>
   </si>
   <si>
@@ -144,6 +162,12 @@
   </si>
   <si>
     <t>通知视野内所有玩家</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>hurt</t>
   </si>
   <si>
     <t>自身周围圆形</t>
@@ -1267,12 +1291,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+      <selection pane="topRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1291,10 +1315,12 @@
     <col min="14" max="14" width="31.375" style="7" customWidth="1"/>
     <col min="15" max="15" width="15.375" style="7" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="17" max="17" width="21" style="7" customWidth="1"/>
+    <col min="18" max="18" width="18.25" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1329,46 +1355,58 @@
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:18">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="32"/>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="P2" s="33"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:18">
       <c r="A3" s="18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
@@ -1382,6 +1420,12 @@
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
+      <c r="Q3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:16">
       <c r="A4" s="22" t="s">
@@ -1391,32 +1435,32 @@
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="G4" s="24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="36"/>
       <c r="L4" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:16">
       <c r="A5" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
@@ -1426,60 +1470,66 @@
       <c r="I5" s="29"/>
       <c r="J5" s="37"/>
       <c r="L5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="30"/>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7" s="6">
         <v>110001</v>
       </c>
@@ -1491,14 +1541,17 @@
         <f>_xlfn.CONCAT("castdesc_",B7)</f>
         <v>castdesc_110001</v>
       </c>
+      <c r="E7" s="7">
+        <v>2000</v>
+      </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1514,6 +1567,12 @@
       </c>
       <c r="P7" s="7">
         <v>2001</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="12:16">
@@ -1545,14 +1604,17 @@
         <f t="shared" ref="D9:D22" si="1">_xlfn.CONCAT("castdesc_",B9)</f>
         <v>castdesc_110002</v>
       </c>
+      <c r="E9" s="7">
+        <v>2000</v>
+      </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -1567,14 +1629,17 @@
         <f t="shared" si="1"/>
         <v>castdesc_110003</v>
       </c>
+      <c r="E10" s="7">
+        <v>2000</v>
+      </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -1589,14 +1654,17 @@
         <f t="shared" si="1"/>
         <v>castdesc_110004</v>
       </c>
+      <c r="E11" s="7">
+        <v>2000</v>
+      </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -1611,14 +1679,17 @@
         <f t="shared" si="1"/>
         <v>castdesc_110005</v>
       </c>
+      <c r="E12" s="7">
+        <v>2000</v>
+      </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -1633,11 +1704,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_120001</v>
       </c>
+      <c r="E13" s="7">
+        <v>2000</v>
+      </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7" t="b">
         <v>0</v>
@@ -1649,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -1664,11 +1738,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_120002</v>
       </c>
+      <c r="E14" s="7">
+        <v>2000</v>
+      </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7" t="b">
         <v>0</v>
@@ -1680,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1695,11 +1772,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_120003</v>
       </c>
+      <c r="E15" s="7">
+        <v>2000</v>
+      </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7" t="b">
         <v>0</v>
@@ -1711,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1726,11 +1806,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_120004</v>
       </c>
+      <c r="E16" s="7">
+        <v>2000</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H16" s="7" t="b">
         <v>0</v>
@@ -1742,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1757,11 +1840,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_120005</v>
       </c>
+      <c r="E17" s="7">
+        <v>2000</v>
+      </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7" t="b">
         <v>0</v>
@@ -1773,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -1788,11 +1874,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_130001</v>
       </c>
+      <c r="E18" s="7">
+        <v>2000</v>
+      </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1804,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1819,11 +1908,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_130002</v>
       </c>
+      <c r="E19" s="7">
+        <v>2000</v>
+      </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1835,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1850,11 +1942,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_130003</v>
       </c>
+      <c r="E20" s="7">
+        <v>2000</v>
+      </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1866,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -1881,11 +1976,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_130004</v>
       </c>
+      <c r="E21" s="7">
+        <v>2000</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1897,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1912,11 +2010,14 @@
         <f t="shared" si="1"/>
         <v>castdesc_130005</v>
       </c>
+      <c r="E22" s="7">
+        <v>2000</v>
+      </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1928,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="CastConfigProto" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>#CastDesc</t>
+  </si>
+  <si>
     <t>TotalTime</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>text</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
     <t>list,CastHitInfo</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -116,7 +119,10 @@
     <t>bool</t>
   </si>
   <si>
-    <t>int#ref=ActionConfigCategory</t>
+    <t>int?#ref=ActionConfigCategory</t>
+  </si>
+  <si>
+    <t>int?#ref=BuffConfigCategory</t>
   </si>
   <si>
     <t>##</t>
@@ -165,9 +171,6 @@
   </si>
   <si>
     <t>attack</t>
-  </si>
-  <si>
-    <t>hurt</t>
   </si>
   <si>
     <t>自身周围圆形</t>
@@ -890,55 +893,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -947,19 +938,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1291,36 +1294,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R10" sqref="R10"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
     <col min="2" max="3" width="20" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9" style="9"/>
-    <col min="11" max="12" width="20.75" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9" style="7"/>
-    <col min="14" max="14" width="31.375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="21" style="7" customWidth="1"/>
-    <col min="18" max="18" width="18.25" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="7"/>
+    <col min="4" max="5" width="20.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9" style="9"/>
+    <col min="12" max="13" width="20.75" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7"/>
+    <col min="15" max="17" width="31.375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="21" style="7" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1333,118 +1334,123 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="1" t="s">
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:18">
-      <c r="A2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
+      <c r="S2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:18">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="3" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:19">
+      <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
       <c r="R3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:16">
-      <c r="A4" s="22" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:17">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="G4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="H4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="36"/>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="34" t="s">
         <v>23</v>
       </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
       <c r="M4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1457,76 +1463,81 @@
       <c r="P4" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="Q4" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:16">
-      <c r="A5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="37"/>
-      <c r="L5" s="5" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:17">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
       <c r="M5" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:18">
+    <row r="6" s="1" customFormat="1" spans="1:19">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="1" t="s">
+      <c r="H6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="I6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="1" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -1541,508 +1552,484 @@
         <f>_xlfn.CONCAT("castdesc_",B7)</f>
         <v>castdesc_110001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>2000</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="7">
+      <c r="H7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1001</v>
-      </c>
-      <c r="O7" s="7">
-        <v>2001</v>
-      </c>
-      <c r="P7" s="7">
-        <v>2001</v>
-      </c>
-      <c r="Q7" s="7" t="s">
+      <c r="N7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7">
+        <v>40005</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="6">
+        <v>110002</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" ref="C8:C21" si="0">_xlfn.CONCAT("castname_",B8)</f>
+        <v>castname_110002</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" ref="D8:D21" si="1">_xlfn.CONCAT("castdesc_",B8)</f>
+        <v>castdesc_110002</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="12:16">
-      <c r="L8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1001</v>
-      </c>
-      <c r="O8" s="7">
-        <v>2001</v>
-      </c>
-      <c r="P8" s="7">
-        <v>2001</v>
+    <row r="9" spans="2:12">
+      <c r="B9" s="6">
+        <v>110003</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>castname_110003</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>castdesc_110003</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="6">
-        <v>110002</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" ref="C9:C22" si="0">_xlfn.CONCAT("castname_",B9)</f>
-        <v>castname_110002</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" ref="D9:D22" si="1">_xlfn.CONCAT("castdesc_",B9)</f>
-        <v>castdesc_110002</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:12">
       <c r="B10" s="6">
-        <v>110003</v>
+        <v>110004</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_110003</v>
+        <v>castname_110004</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_110003</v>
-      </c>
-      <c r="E10" s="7">
+        <v>castdesc_110004</v>
+      </c>
+      <c r="F10" s="7">
         <v>2000</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="H10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:12">
       <c r="B11" s="6">
-        <v>110004</v>
+        <v>110005</v>
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_110004</v>
+        <v>castname_110005</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_110004</v>
-      </c>
-      <c r="E11" s="7">
+        <v>castdesc_110005</v>
+      </c>
+      <c r="F11" s="7">
         <v>2000</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:12">
       <c r="B12" s="6">
-        <v>110005</v>
+        <v>120001</v>
       </c>
       <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_110005</v>
+        <v>castname_120001</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_110005</v>
-      </c>
-      <c r="E12" s="7">
+        <v>castdesc_120001</v>
+      </c>
+      <c r="F12" s="7">
         <v>2000</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>44</v>
+      <c r="G12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9">
+        <v>5</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:12">
       <c r="B13" s="6">
-        <v>120001</v>
+        <v>120002</v>
       </c>
       <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_120001</v>
+        <v>castname_120002</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_120001</v>
-      </c>
-      <c r="E13" s="7">
+        <v>castdesc_120002</v>
+      </c>
+      <c r="F13" s="7">
         <v>2000</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="7" t="b">
+      <c r="H13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J13" s="7">
         <v>5</v>
       </c>
-      <c r="J13" s="9">
+      <c r="K13" s="9">
         <v>5</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
+      <c r="L13" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:12">
       <c r="B14" s="6">
-        <v>120002</v>
+        <v>120003</v>
       </c>
       <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_120002</v>
+        <v>castname_120003</v>
       </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_120002</v>
-      </c>
-      <c r="E14" s="7">
+        <v>castdesc_120003</v>
+      </c>
+      <c r="F14" s="7">
         <v>2000</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="7" t="b">
+      <c r="H14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>5</v>
       </c>
-      <c r="J14" s="9">
+      <c r="K14" s="9">
         <v>5</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
+      <c r="L14" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:12">
       <c r="B15" s="6">
-        <v>120003</v>
+        <v>120004</v>
       </c>
       <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_120003</v>
+        <v>castname_120004</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_120003</v>
-      </c>
-      <c r="E15" s="7">
+        <v>castdesc_120004</v>
+      </c>
+      <c r="F15" s="7">
         <v>2000</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="7" t="b">
+      <c r="H15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="J15" s="7">
         <v>5</v>
       </c>
-      <c r="J15" s="9">
+      <c r="K15" s="9">
         <v>5</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>44</v>
+      <c r="L15" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="6">
-        <v>120004</v>
+        <v>120005</v>
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_120004</v>
+        <v>castname_120005</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_120004</v>
-      </c>
-      <c r="E16" s="7">
+        <v>castdesc_120005</v>
+      </c>
+      <c r="F16" s="7">
         <v>2000</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="7" t="b">
+      <c r="H16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>5</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K16" s="9">
         <v>5</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
+      <c r="L16" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:12">
       <c r="B17" s="6">
-        <v>120005</v>
+        <v>130001</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_120005</v>
+        <v>castname_130001</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_120005</v>
-      </c>
-      <c r="E17" s="7">
+        <v>castdesc_130001</v>
+      </c>
+      <c r="F17" s="7">
         <v>2000</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7" t="b">
-        <v>0</v>
+      <c r="G17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I17" s="7">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6</v>
+      </c>
+      <c r="K17" s="9">
         <v>5</v>
       </c>
-      <c r="J17" s="9">
-        <v>5</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
+      <c r="L17" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:12">
       <c r="B18" s="6">
-        <v>130001</v>
+        <v>130002</v>
       </c>
       <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_130001</v>
+        <v>castname_130002</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_130001</v>
-      </c>
-      <c r="E18" s="7">
+        <v>castdesc_130002</v>
+      </c>
+      <c r="F18" s="7">
         <v>2000</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="7">
         <v>6</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K18" s="9">
         <v>5</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>44</v>
+      <c r="L18" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:12">
       <c r="B19" s="6">
-        <v>130002</v>
+        <v>130003</v>
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_130002</v>
+        <v>castname_130003</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_130002</v>
-      </c>
-      <c r="E19" s="7">
+        <v>castdesc_130003</v>
+      </c>
+      <c r="F19" s="7">
         <v>2000</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="7">
         <v>3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>6</v>
       </c>
-      <c r="J19" s="9">
+      <c r="K19" s="9">
         <v>5</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
+      <c r="L19" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:12">
       <c r="B20" s="6">
-        <v>130003</v>
+        <v>130004</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_130003</v>
+        <v>castname_130004</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_130003</v>
-      </c>
-      <c r="E20" s="7">
+        <v>castdesc_130004</v>
+      </c>
+      <c r="F20" s="7">
         <v>2000</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="7">
         <v>3</v>
       </c>
-      <c r="I20" s="7">
+      <c r="J20" s="7">
         <v>6</v>
       </c>
-      <c r="J20" s="9">
+      <c r="K20" s="9">
         <v>5</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
+      <c r="L20" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:12">
       <c r="B21" s="6">
-        <v>130004</v>
+        <v>130005</v>
       </c>
       <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>castname_130004</v>
+        <v>castname_130005</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>castdesc_130004</v>
-      </c>
-      <c r="E21" s="7">
+        <v>castdesc_130005</v>
+      </c>
+      <c r="F21" s="7">
         <v>2000</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="7">
         <v>3</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <v>6</v>
       </c>
-      <c r="J21" s="9">
+      <c r="K21" s="9">
         <v>5</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="6">
-        <v>130005</v>
-      </c>
-      <c r="C22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_130005</v>
-      </c>
-      <c r="D22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_130005</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6</v>
-      </c>
-      <c r="J22" s="9">
-        <v>5</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>44</v>
+      <c r="L21" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -50,7 +50,13 @@
     <t>SelectTargetType</t>
   </si>
   <si>
-    <t>CastSelectTargetsParam</t>
+    <t>CastCooldown</t>
+  </si>
+  <si>
+    <t>Casting</t>
+  </si>
+  <si>
+    <t>SelectTargetsParams</t>
   </si>
   <si>
     <t>NotifyType</t>
@@ -59,6 +65,9 @@
     <t>*HitInfos</t>
   </si>
   <si>
+    <t>FinishActions</t>
+  </si>
+  <si>
     <t>CastStartAnimation</t>
   </si>
   <si>
@@ -80,7 +89,7 @@
     <t>long</t>
   </si>
   <si>
-    <t>CastSelectTargetsParams</t>
+    <t>int?</t>
   </si>
   <si>
     <t>MessageNotifyType</t>
@@ -89,6 +98,9 @@
     <t>list,CastHitInfo</t>
   </si>
   <si>
+    <t>list,int</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -143,6 +155,12 @@
     <t>选择目标类型</t>
   </si>
   <si>
+    <t>技能释放CD</t>
+  </si>
+  <si>
+    <t>持续施法</t>
+  </si>
+  <si>
     <t>技能作用参数类型</t>
   </si>
   <si>
@@ -155,6 +173,9 @@
     <t>命中信息</t>
   </si>
   <si>
+    <t>结束行为</t>
+  </si>
+  <si>
     <t>技能起手动画</t>
   </si>
   <si>
@@ -164,7 +185,7 @@
     <t>单体</t>
   </si>
   <si>
-    <t>CastSingle</t>
+    <t>Single</t>
   </si>
   <si>
     <t>通知视野内所有玩家</t>
@@ -176,13 +197,13 @@
     <t>自身周围圆形</t>
   </si>
   <si>
-    <t>CastTargetCycle</t>
+    <t>Cycle</t>
   </si>
   <si>
     <t>自身前方矩形</t>
   </si>
   <si>
-    <t>CastForwardRect</t>
+    <t>ForwardRect</t>
   </si>
 </sst>
 </file>
@@ -890,43 +911,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
@@ -938,6 +947,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -947,6 +959,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -956,10 +971,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1294,12 +1315,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="topRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1308,20 +1329,20 @@
     <col min="2" max="3" width="20" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="16" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9" style="9"/>
-    <col min="12" max="13" width="20.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="17" width="31.375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="21" style="7" customWidth="1"/>
-    <col min="19" max="19" width="18.25" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="7"/>
+    <col min="7" max="9" width="18.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9" style="9"/>
+    <col min="14" max="15" width="20.75" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9" style="7"/>
+    <col min="17" max="20" width="31.375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="21" style="7" customWidth="1"/>
+    <col min="22" max="22" width="18.25" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1343,204 +1364,232 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="1" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="O1" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:19">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="14" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:22">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:22">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:19">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="J4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+      <c r="O4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:19">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>15</v>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="37"/>
+      <c r="O5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:19">
-      <c r="A3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:17">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="H4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
-      <c r="M4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:17">
-      <c r="A5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="M5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
+    <row r="6" s="1" customFormat="1" spans="1:22">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="J6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:21">
       <c r="B7" s="6">
         <v>110001</v>
       </c>
@@ -1556,30 +1605,34 @@
         <v>2000</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7">
+        <v>51</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7" t="b">
+      <c r="P7" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7">
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7">
         <v>40005</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>47</v>
+      <c r="U7" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:14">
       <c r="B8" s="6">
         <v>110002</v>
       </c>
@@ -1595,16 +1648,19 @@
         <v>2000</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:14">
       <c r="B9" s="6">
         <v>110003</v>
       </c>
@@ -1620,16 +1676,19 @@
         <v>2000</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:14">
       <c r="B10" s="6">
         <v>110004</v>
       </c>
@@ -1645,16 +1704,19 @@
         <v>2000</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:14">
       <c r="B11" s="6">
         <v>110005</v>
       </c>
@@ -1670,16 +1732,19 @@
         <v>2000</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:14">
       <c r="B12" s="6">
         <v>120001</v>
       </c>
@@ -1695,25 +1760,28 @@
         <v>2000</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="7" t="b">
+        <v>55</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="7">
+      <c r="L12" s="7">
         <v>5</v>
       </c>
-      <c r="K12" s="9">
+      <c r="M12" s="9">
         <v>5</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>46</v>
+      <c r="N12" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:14">
       <c r="B13" s="6">
         <v>120002</v>
       </c>
@@ -1729,25 +1797,28 @@
         <v>2000</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="7" t="b">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="7">
+      <c r="L13" s="7">
         <v>5</v>
       </c>
-      <c r="K13" s="9">
+      <c r="M13" s="9">
         <v>5</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>46</v>
+      <c r="N13" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:14">
       <c r="B14" s="6">
         <v>120003</v>
       </c>
@@ -1763,25 +1834,28 @@
         <v>2000</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="7" t="b">
+        <v>55</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="7">
+      <c r="L14" s="7">
         <v>5</v>
       </c>
-      <c r="K14" s="9">
+      <c r="M14" s="9">
         <v>5</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>46</v>
+      <c r="N14" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:14">
       <c r="B15" s="6">
         <v>120004</v>
       </c>
@@ -1797,25 +1871,28 @@
         <v>2000</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="7" t="b">
+        <v>55</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="7">
+      <c r="L15" s="7">
         <v>5</v>
       </c>
-      <c r="K15" s="9">
+      <c r="M15" s="9">
         <v>5</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>46</v>
+      <c r="N15" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:14">
       <c r="B16" s="6">
         <v>120005</v>
       </c>
@@ -1831,25 +1908,28 @@
         <v>2000</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7" t="b">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="7">
+      <c r="L16" s="7">
         <v>5</v>
       </c>
-      <c r="K16" s="9">
+      <c r="M16" s="9">
         <v>5</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>46</v>
+      <c r="N16" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:14">
       <c r="B17" s="6">
         <v>130001</v>
       </c>
@@ -1865,25 +1945,28 @@
         <v>2000</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="7">
+        <v>57</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="7">
         <v>3</v>
       </c>
-      <c r="J17" s="7">
+      <c r="L17" s="7">
         <v>6</v>
       </c>
-      <c r="K17" s="9">
+      <c r="M17" s="9">
         <v>5</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>46</v>
+      <c r="N17" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:14">
       <c r="B18" s="6">
         <v>130002</v>
       </c>
@@ -1899,25 +1982,28 @@
         <v>2000</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="7">
+        <v>57</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="7">
         <v>3</v>
       </c>
-      <c r="J18" s="7">
+      <c r="L18" s="7">
         <v>6</v>
       </c>
-      <c r="K18" s="9">
+      <c r="M18" s="9">
         <v>5</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>46</v>
+      <c r="N18" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:14">
       <c r="B19" s="6">
         <v>130003</v>
       </c>
@@ -1933,25 +2019,28 @@
         <v>2000</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="7">
+        <v>57</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="7">
+      <c r="L19" s="7">
         <v>6</v>
       </c>
-      <c r="K19" s="9">
+      <c r="M19" s="9">
         <v>5</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
+      <c r="N19" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:14">
       <c r="B20" s="6">
         <v>130004</v>
       </c>
@@ -1967,25 +2056,28 @@
         <v>2000</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="7">
+        <v>57</v>
+      </c>
+      <c r="H20" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="7">
         <v>3</v>
       </c>
-      <c r="J20" s="7">
+      <c r="L20" s="7">
         <v>6</v>
       </c>
-      <c r="K20" s="9">
+      <c r="M20" s="9">
         <v>5</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>46</v>
+      <c r="N20" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:14">
       <c r="B21" s="6">
         <v>130005</v>
       </c>
@@ -2001,35 +2093,38 @@
         <v>2000</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="7">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="7">
         <v>3</v>
       </c>
-      <c r="J21" s="7">
+      <c r="L21" s="7">
         <v>6</v>
       </c>
-      <c r="K21" s="9">
+      <c r="M21" s="9">
         <v>5</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>46</v>
+      <c r="N21" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:S6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="CastConfigProto" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>#CastDesc</t>
-  </si>
-  <si>
     <t>TotalTime</t>
   </si>
   <si>
@@ -83,30 +80,33 @@
     <t>text</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>int?</t>
+  </si>
+  <si>
+    <t>MessageNotifyType</t>
+  </si>
+  <si>
+    <t>list,CastHitInfo</t>
+  </si>
+  <si>
+    <t>list,int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>int?</t>
-  </si>
-  <si>
-    <t>MessageNotifyType</t>
-  </si>
-  <si>
-    <t>list,CastHitInfo</t>
-  </si>
-  <si>
-    <t>list,int</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>$type</t>
   </si>
   <si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>技能受击动画</t>
+  </si>
+  <si>
+    <t>影响单位最大个数</t>
   </si>
   <si>
     <t>单体</t>
@@ -874,7 +877,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,9 +899,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -908,31 +908,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1315,47 +1300,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T7" sqref="T7"/>
+      <selection pane="topRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
     <col min="2" max="3" width="20" style="6" customWidth="1"/>
-    <col min="4" max="5" width="20.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16" style="7" customWidth="1"/>
-    <col min="7" max="9" width="18.375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9" style="9"/>
-    <col min="14" max="15" width="20.75" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9" style="7"/>
-    <col min="17" max="20" width="31.375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="21" style="7" customWidth="1"/>
-    <col min="22" max="22" width="18.25" style="7" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="20.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16" style="6" customWidth="1"/>
+    <col min="6" max="8" width="18.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="8" customWidth="1"/>
+    <col min="13" max="14" width="20.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6"/>
+    <col min="16" max="16" width="34.875" style="6" customWidth="1"/>
+    <col min="17" max="19" width="31.375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="21" style="6" customWidth="1"/>
+    <col min="21" max="21" width="18.25" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:21">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1367,764 +1353,367 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:21">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:22">
-      <c r="A2" s="12" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:21">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="N3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:18">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="I4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:18">
+      <c r="A5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="N5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:22">
-      <c r="A3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:19">
-      <c r="A4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="J4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
-      <c r="O4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:19">
-      <c r="A5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
       <c r="O5" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:22">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:21">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="J6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="1" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="N6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17" t="s">
         <v>48</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="U6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
-      <c r="B7" s="6">
+    <row r="7" s="1" customFormat="1" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="6">
         <v>110001</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B7)</f>
+      <c r="C8" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B8)</f>
         <v>castname_110001</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B7)</f>
+      <c r="D8" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B8)</f>
         <v>castdesc_110001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E8" s="6">
         <v>2000</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6">
         <v>10000</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="7">
+      <c r="M8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="P7" s="7" t="b">
+      <c r="O8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
         <v>40005</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="6">
+        <v>120001</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B9)</f>
+        <v>castname_120001</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B9)</f>
+        <v>castdesc_120001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="6">
-        <v>110002</v>
-      </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" ref="C8:C21" si="0">_xlfn.CONCAT("castname_",B8)</f>
-        <v>castname_110002</v>
-      </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" ref="D8:D21" si="1">_xlfn.CONCAT("castdesc_",B8)</f>
-        <v>castdesc_110002</v>
-      </c>
-      <c r="F8" s="7">
+    <row r="10" spans="2:13">
+      <c r="B10" s="6">
+        <v>130001</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B10)</f>
+        <v>castname_130001</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B10)</f>
+        <v>castdesc_130001</v>
+      </c>
+      <c r="E10" s="6">
         <v>2000</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="6">
         <v>10000</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="6">
-        <v>110003</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_110003</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_110003</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="6">
-        <v>110004</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_110004</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_110004</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="6">
-        <v>110005</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_110005</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_110005</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="6">
-        <v>120001</v>
-      </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_120001</v>
-      </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_120001</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="I10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>6</v>
+      </c>
+      <c r="L10" s="8">
         <v>5</v>
       </c>
-      <c r="M12" s="9">
-        <v>5</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="6">
-        <v>120002</v>
-      </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_120002</v>
-      </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_120002</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>5</v>
-      </c>
-      <c r="M13" s="9">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="6">
-        <v>120003</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_120003</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_120003</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>5</v>
-      </c>
-      <c r="M14" s="9">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="6">
-        <v>120004</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_120004</v>
-      </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_120004</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>5</v>
-      </c>
-      <c r="M15" s="9">
-        <v>5</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="6">
-        <v>120005</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_120005</v>
-      </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_120005</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>5</v>
-      </c>
-      <c r="M16" s="9">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="6">
-        <v>130001</v>
-      </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_130001</v>
-      </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_130001</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="7">
-        <v>3</v>
-      </c>
-      <c r="L17" s="7">
-        <v>6</v>
-      </c>
-      <c r="M17" s="9">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="6">
-        <v>130002</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_130002</v>
-      </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_130002</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="7">
-        <v>3</v>
-      </c>
-      <c r="L18" s="7">
-        <v>6</v>
-      </c>
-      <c r="M18" s="9">
-        <v>5</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="6">
-        <v>130003</v>
-      </c>
-      <c r="C19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_130003</v>
-      </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_130003</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="7">
-        <v>3</v>
-      </c>
-      <c r="L19" s="7">
-        <v>6</v>
-      </c>
-      <c r="M19" s="9">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="6">
-        <v>130004</v>
-      </c>
-      <c r="C20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_130004</v>
-      </c>
-      <c r="D20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_130004</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="7">
-        <v>3</v>
-      </c>
-      <c r="L20" s="7">
-        <v>6</v>
-      </c>
-      <c r="M20" s="9">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="6">
-        <v>130005</v>
-      </c>
-      <c r="C21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>castname_130005</v>
-      </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>castdesc_130005</v>
-      </c>
-      <c r="F21" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="7">
-        <v>10000</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="7">
-        <v>3</v>
-      </c>
-      <c r="L21" s="7">
-        <v>6</v>
-      </c>
-      <c r="M21" s="9">
-        <v>5</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>53</v>
+      <c r="M10" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -1303,9 +1303,9 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T18" sqref="T18"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="CastConfigProto" sheetId="6" r:id="rId1"/>
+    <sheet name="战士" sheetId="6" r:id="rId1"/>
+    <sheet name="法师" sheetId="7" r:id="rId2"/>
+    <sheet name="牧师" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -44,13 +46,16 @@
     <t>TotalTime</t>
   </si>
   <si>
+    <t>CastCooldown</t>
+  </si>
+  <si>
+    <t>Casting</t>
+  </si>
+  <si>
     <t>SelectTargetType</t>
   </si>
   <si>
-    <t>CastCooldown</t>
-  </si>
-  <si>
-    <t>Casting</t>
+    <t>CastTargetType</t>
   </si>
   <si>
     <t>SelectTargetsParams</t>
@@ -83,7 +88,7 @@
     <t>long</t>
   </si>
   <si>
-    <t>int?</t>
+    <t>bool</t>
   </si>
   <si>
     <t>MessageNotifyType</t>
@@ -128,9 +133,6 @@
     <t>SelfBuff</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>int?#ref=ActionConfigCategory</t>
   </si>
   <si>
@@ -152,61 +154,88 @@
     <t>技能总时长</t>
   </si>
   <si>
+    <t>技能释放CD</t>
+  </si>
+  <si>
+    <t>持续施法</t>
+  </si>
+  <si>
+    <t>技能选择目标类型</t>
+  </si>
+  <si>
+    <t>技能释放阵营</t>
+  </si>
+  <si>
+    <t>技能作用参数类型</t>
+  </si>
+  <si>
+    <t>技能作用参数</t>
+  </si>
+  <si>
+    <t>通知客户端方式</t>
+  </si>
+  <si>
+    <t>命中信息</t>
+  </si>
+  <si>
+    <t>结束行为</t>
+  </si>
+  <si>
+    <t>技能起手动画</t>
+  </si>
+  <si>
+    <t>技能受击动画</t>
+  </si>
+  <si>
+    <t>单体</t>
+  </si>
+  <si>
+    <t>友方</t>
+  </si>
+  <si>
+    <t>单体选择参数</t>
+  </si>
+  <si>
+    <t>通知视野内所有玩家</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>自身圆形范围</t>
+  </si>
+  <si>
+    <t>自身圆形选择参数</t>
+  </si>
+  <si>
+    <t>前方矩形范围</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>自身前方矩形选择参数</t>
+  </si>
+  <si>
+    <t>##Desc</t>
+  </si>
+  <si>
+    <t>冰箭术</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>string?</t>
+  </si>
+  <si>
+    <t>技能描述（不导出）</t>
+  </si>
+  <si>
     <t>选择目标类型</t>
-  </si>
-  <si>
-    <t>技能释放CD</t>
-  </si>
-  <si>
-    <t>持续施法</t>
-  </si>
-  <si>
-    <t>技能作用参数类型</t>
-  </si>
-  <si>
-    <t>技能作用参数</t>
-  </si>
-  <si>
-    <t>通知客户端方式</t>
-  </si>
-  <si>
-    <t>命中信息</t>
-  </si>
-  <si>
-    <t>结束行为</t>
-  </si>
-  <si>
-    <t>技能起手动画</t>
-  </si>
-  <si>
-    <t>技能受击动画</t>
-  </si>
-  <si>
-    <t>影响单位最大个数</t>
-  </si>
-  <si>
-    <t>单体</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>通知视野内所有玩家</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>自身周围圆形</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>自身前方矩形</t>
-  </si>
-  <si>
-    <t>ForwardRect</t>
   </si>
 </sst>
 </file>
@@ -877,7 +906,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,83 +925,134 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1300,35 +1380,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
-    <col min="2" max="3" width="20" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16" style="6" customWidth="1"/>
-    <col min="6" max="8" width="18.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="8" customWidth="1"/>
-    <col min="13" max="14" width="20.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="34.875" style="6" customWidth="1"/>
-    <col min="17" max="19" width="31.375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21" style="6" customWidth="1"/>
-    <col min="21" max="21" width="18.25" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.75" style="35" customWidth="1"/>
+    <col min="2" max="3" width="20" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="35" customWidth="1"/>
+    <col min="5" max="5" width="16" style="35" customWidth="1"/>
+    <col min="6" max="9" width="18.375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="44" customWidth="1"/>
+    <col min="11" max="11" width="11" style="35" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="45" customWidth="1"/>
+    <col min="14" max="15" width="20.75" style="35" customWidth="1"/>
+    <col min="16" max="16" width="9" style="35"/>
+    <col min="17" max="17" width="34.875" style="35" customWidth="1"/>
+    <col min="18" max="20" width="31.375" style="35" customWidth="1"/>
+    <col min="21" max="21" width="21" style="35" customWidth="1"/>
+    <col min="22" max="22" width="18.25" style="35" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1353,131 +1433,134 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="16"/>
       <c r="L1" s="16"/>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="O1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+    <row r="2" s="2" customFormat="1" spans="1:22">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21" t="s">
+      <c r="O2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47" t="s">
         <v>22</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:21">
+    <row r="3" s="3" customFormat="1" spans="1:22">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="22"/>
+        <v>25</v>
+      </c>
       <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="24"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="25"/>
+      <c r="O3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25" t="s">
+      <c r="V3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:18">
+    <row r="4" s="4" customFormat="1" spans="1:19">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="I4" s="26" t="s">
-        <v>26</v>
-      </c>
       <c r="J4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="L4" s="28"/>
-      <c r="N4" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="M4" s="29"/>
       <c r="O4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1490,33 +1573,36 @@
       <c r="R4" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="S4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:18">
+    <row r="5" s="5" customFormat="1" spans="1:19">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="N5" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
       <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="S5" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:21">
+    <row r="6" s="1" customFormat="1" spans="1:22">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1541,181 +1627,870 @@
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="L6" s="16"/>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
+      <c r="O6" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46" t="s">
         <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="V6" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:19">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
+    <row r="7" spans="2:21">
+      <c r="B7" s="35">
+        <v>110001</v>
+      </c>
+      <c r="C7" s="35" t="str">
+        <f>_xlfn.CONCAT("castname_",B7)</f>
+        <v>castname_110001</v>
+      </c>
+      <c r="D7" s="35" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B7)</f>
+        <v>castdesc_110001</v>
+      </c>
+      <c r="E7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="35">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="35">
+        <v>0</v>
+      </c>
+      <c r="P7" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35">
+        <v>40005</v>
+      </c>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="6">
-        <v>110001</v>
-      </c>
-      <c r="C8" s="6" t="str">
+    <row r="8" spans="2:21">
+      <c r="B8" s="35">
+        <v>120001</v>
+      </c>
+      <c r="C8" s="35" t="str">
         <f>_xlfn.CONCAT("castname_",B8)</f>
-        <v>castname_110001</v>
-      </c>
-      <c r="D8" s="6" t="str">
+        <v>castname_120001</v>
+      </c>
+      <c r="D8" s="35" t="str">
         <f>_xlfn.CONCAT("castdesc_",B8)</f>
-        <v>castdesc_110001</v>
-      </c>
-      <c r="E8" s="6">
+        <v>castdesc_120001</v>
+      </c>
+      <c r="E8" s="35">
         <v>2000</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="35">
         <v>10000</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="J8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="6" t="b">
+      <c r="L8" s="35">
+        <v>5</v>
+      </c>
+      <c r="M8" s="45">
+        <v>5</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="35">
+        <v>0</v>
+      </c>
+      <c r="P8" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6">
-        <v>40005</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6" t="s">
+      <c r="Q8" s="35">
+        <v>1003</v>
+      </c>
+      <c r="R8" s="35"/>
+      <c r="U8" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="35">
+        <v>130001</v>
+      </c>
+      <c r="C9" s="35" t="str">
+        <f>_xlfn.CONCAT("castname_",B9)</f>
+        <v>castname_130001</v>
+      </c>
+      <c r="D9" s="35" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B9)</f>
+        <v>castdesc_130001</v>
+      </c>
+      <c r="E9" s="35">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="35">
+        <v>10000</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="35">
+        <v>3</v>
+      </c>
+      <c r="L9" s="35">
+        <v>6</v>
+      </c>
+      <c r="M9" s="45">
+        <v>5</v>
+      </c>
+      <c r="N9" s="35" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="6">
-        <v>120001</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B9)</f>
-        <v>castname_120001</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B9)</f>
-        <v>castdesc_120001</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="6">
-        <v>10000</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>5</v>
-      </c>
-      <c r="L9" s="8">
-        <v>5</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="6">
-        <v>130001</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B10)</f>
-        <v>castname_130001</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B10)</f>
-        <v>castdesc_130001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="6">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>6</v>
-      </c>
-      <c r="L10" s="8">
-        <v>5</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:S6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="41"/>
+    <col min="2" max="2" width="14.5" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="41" customWidth="1"/>
+    <col min="4" max="5" width="27.75" style="41" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="41" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="42" customWidth="1"/>
+    <col min="12" max="13" width="9" style="41"/>
+    <col min="14" max="14" width="23.125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="20.875" style="41" customWidth="1"/>
+    <col min="16" max="16" width="13" style="42" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="41" customWidth="1"/>
+    <col min="18" max="18" width="32.375" style="41" customWidth="1"/>
+    <col min="19" max="19" width="29.625" style="41" customWidth="1"/>
+    <col min="20" max="20" width="34.125" style="43" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:23">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="36"/>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:23">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="37"/>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:23">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="P3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="38"/>
+      <c r="U3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:20">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="K4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="P4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:20">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="P5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:23">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="36"/>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="41">
+        <v>210001</v>
+      </c>
+      <c r="C7" s="41" t="str">
+        <f>_xlfn.CONCAT("castname_",B7)</f>
+        <v>castname_210001</v>
+      </c>
+      <c r="D7" s="41" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B7)</f>
+        <v>castdesc_210001</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="41">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="41">
+        <v>1</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="13.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="29" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="6" customWidth="1"/>
+    <col min="9" max="10" width="18.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9" style="6"/>
+    <col min="14" max="14" width="17.125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="20.75" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9" style="7"/>
+    <col min="17" max="17" width="9" style="6"/>
+    <col min="18" max="18" width="32.375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="29.625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="29.625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20" style="6" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="6" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:23">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="36"/>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:23">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="37"/>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:23">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="P3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="38"/>
+      <c r="U3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:20">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="K4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="P4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:20">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="P5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:23">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="36"/>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="6">
+        <v>310001</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B7)</f>
+        <v>castname_310001</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B7)</f>
+        <v>castdesc_310001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809" activeTab="2"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -223,10 +223,16 @@
     <t>冰箭术</t>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
     <t>sing</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>指定圆形范围</t>
+  </si>
+  <si>
+    <t>指定圆形选择参数</t>
   </si>
   <si>
     <t>string?</t>
@@ -906,7 +912,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,14 +1036,74 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1395,10 +1461,10 @@
     <col min="4" max="4" width="20.25" style="35" customWidth="1"/>
     <col min="5" max="5" width="16" style="35" customWidth="1"/>
     <col min="6" max="9" width="18.375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="44" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="64" customWidth="1"/>
     <col min="11" max="11" width="11" style="35" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="65" customWidth="1"/>
     <col min="14" max="15" width="20.75" style="35" customWidth="1"/>
     <col min="16" max="16" width="9" style="35"/>
     <col min="17" max="17" width="34.875" style="35" customWidth="1"/>
@@ -1445,14 +1511,14 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1499,14 +1565,14 @@
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47" t="s">
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67" t="s">
         <v>22</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -1531,14 +1597,14 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="25"/>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48" t="s">
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="3" t="s">
@@ -1641,14 +1707,14 @@
       <c r="N6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46" t="s">
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66" t="s">
         <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1679,13 +1745,13 @@
       <c r="G7" s="35">
         <v>0</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="64" t="s">
         <v>54</v>
       </c>
       <c r="N7" s="35" t="s">
@@ -1697,12 +1763,9 @@
       <c r="P7" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
       <c r="S7" s="35">
         <v>40005</v>
       </c>
-      <c r="T7" s="35"/>
       <c r="U7" s="35" t="s">
         <v>56</v>
       </c>
@@ -1734,7 +1797,7 @@
       <c r="I8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="64" t="s">
         <v>58</v>
       </c>
       <c r="K8" s="35" t="b">
@@ -1743,7 +1806,7 @@
       <c r="L8" s="35">
         <v>5</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="65">
         <v>5</v>
       </c>
       <c r="N8" s="35" t="s">
@@ -1758,7 +1821,6 @@
       <c r="Q8" s="35">
         <v>1003</v>
       </c>
-      <c r="R8" s="35"/>
       <c r="U8" s="35" t="s">
         <v>56</v>
       </c>
@@ -1790,7 +1852,7 @@
       <c r="I9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="64" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="35">
@@ -1799,7 +1861,7 @@
       <c r="L9" s="35">
         <v>6</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="65">
         <v>5</v>
       </c>
       <c r="N9" s="35" t="s">
@@ -1826,36 +1888,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="41"/>
-    <col min="2" max="2" width="14.5" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="41" customWidth="1"/>
-    <col min="4" max="5" width="27.75" style="41" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="41" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="41" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="41" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="42" customWidth="1"/>
-    <col min="12" max="13" width="9" style="41"/>
-    <col min="14" max="14" width="23.125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="41" customWidth="1"/>
-    <col min="16" max="16" width="13" style="42" customWidth="1"/>
-    <col min="17" max="17" width="13.75" style="41" customWidth="1"/>
-    <col min="18" max="18" width="32.375" style="41" customWidth="1"/>
-    <col min="19" max="19" width="29.625" style="41" customWidth="1"/>
-    <col min="20" max="20" width="34.125" style="43" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="6" customWidth="1"/>
+    <col min="4" max="5" width="27.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9" style="41"/>
+    <col min="13" max="13" width="7.125" style="41" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="43" customWidth="1"/>
+    <col min="16" max="16" width="20.875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13" style="7" customWidth="1"/>
+    <col min="18" max="18" width="13.75" style="6" customWidth="1"/>
+    <col min="19" max="19" width="32.375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="29.625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="34.125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
+    <col min="23" max="23" width="20" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.25" style="6" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" spans="1:24">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1886,30 +1953,31 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:23">
+    <row r="2" s="2" customFormat="1" spans="1:24">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -1940,30 +2008,31 @@
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="2" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="Q2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="37"/>
+      <c r="V2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="X2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:23">
+    <row r="3" s="3" customFormat="1" spans="1:24">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1975,24 +2044,25 @@
         <v>25</v>
       </c>
       <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="P3" s="26" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="Q3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="38"/>
+      <c r="V3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="X3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:20">
+    <row r="4" s="4" customFormat="1" spans="1:21">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -2000,53 +2070,55 @@
       <c r="K4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="P4" s="30" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="Q4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="U4" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:20">
+    <row r="5" s="5" customFormat="1" spans="1:21">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="P5" s="34" t="s">
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="60"/>
+      <c r="Q5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="U5" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:23">
+    <row r="6" s="1" customFormat="1" spans="1:24">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -2080,76 +2152,138 @@
       <c r="K6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="1" t="s">
+      <c r="M6" s="61"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="36"/>
+      <c r="V6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="41">
+    <row r="7" spans="2:23">
+      <c r="B7" s="6">
         <v>210001</v>
       </c>
-      <c r="C7" s="41" t="str">
+      <c r="C7" s="6" t="str">
         <f>_xlfn.CONCAT("castname_",B7)</f>
         <v>castname_210001</v>
       </c>
-      <c r="D7" s="41" t="str">
+      <c r="D7" s="6" t="str">
         <f>_xlfn.CONCAT("castdesc_",B7)</f>
         <v>castdesc_210001</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="6">
         <v>2000</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="41" t="s">
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="6">
+        <v>210002</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B8)</f>
+        <v>castname_210002</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B8)</f>
+        <v>castdesc_210002</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="41">
+        <v>10</v>
+      </c>
+      <c r="N8" s="42">
+        <v>5</v>
+      </c>
+      <c r="O8" s="43">
+        <v>10</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="41" t="s">
-        <v>65</v>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>2004</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1004</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:U2"/>
     <mergeCell ref="K3:N3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="L4:O4"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="Q6:U6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2161,8 +2295,8 @@
   <sheetPr/>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -2296,7 +2430,7 @@
         <v>23</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:23">
@@ -2396,7 +2530,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -2408,7 +2542,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>44</v>
@@ -2472,7 +2606,7 @@
         <v>55</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:2">

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="6" r:id="rId1"/>
@@ -1448,10 +1448,10 @@
   <sheetPr/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="35">
-        <v>1003</v>
+        <v>2005</v>
       </c>
       <c r="U8" s="35" t="s">
         <v>56</v>
@@ -1890,7 +1890,7 @@
   <sheetPr/>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>选择目标类型</t>
+  </si>
+  <si>
+    <t>快速治疗</t>
+  </si>
+  <si>
+    <t>复活术</t>
+  </si>
+  <si>
+    <t>祛病术</t>
   </si>
 </sst>
 </file>
@@ -912,7 +921,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,8 +964,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1039,12 +1048,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,9 +1078,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,16 +1093,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1448,10 +1442,10 @@
   <sheetPr/>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R8" sqref="R8"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1461,10 +1455,10 @@
     <col min="4" max="4" width="20.25" style="35" customWidth="1"/>
     <col min="5" max="5" width="16" style="35" customWidth="1"/>
     <col min="6" max="9" width="18.375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="64" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="59" customWidth="1"/>
     <col min="11" max="11" width="11" style="35" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="65" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="60" customWidth="1"/>
     <col min="14" max="15" width="20.75" style="35" customWidth="1"/>
     <col min="16" max="16" width="9" style="35"/>
     <col min="17" max="17" width="34.875" style="35" customWidth="1"/>
@@ -1511,14 +1505,14 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -1565,14 +1559,14 @@
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62" t="s">
         <v>22</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -1597,14 +1591,14 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="25"/>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="3" t="s">
@@ -1707,14 +1701,14 @@
       <c r="N6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="O6" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66" t="s">
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61" t="s">
         <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1751,8 +1745,11 @@
       <c r="I7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="59" t="s">
         <v>54</v>
+      </c>
+      <c r="K7" s="35" t="b">
+        <v>1</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>55</v>
@@ -1797,7 +1794,7 @@
       <c r="I8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="59" t="s">
         <v>58</v>
       </c>
       <c r="K8" s="35" t="b">
@@ -1806,7 +1803,7 @@
       <c r="L8" s="35">
         <v>5</v>
       </c>
-      <c r="M8" s="65">
+      <c r="M8" s="60">
         <v>5</v>
       </c>
       <c r="N8" s="35" t="s">
@@ -1852,7 +1849,7 @@
       <c r="I9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="59" t="s">
         <v>61</v>
       </c>
       <c r="K9" s="35">
@@ -1861,7 +1858,7 @@
       <c r="L9" s="35">
         <v>6</v>
       </c>
-      <c r="M9" s="65">
+      <c r="M9" s="60">
         <v>5</v>
       </c>
       <c r="N9" s="35" t="s">
@@ -1890,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1907,9 +1904,8 @@
     <col min="10" max="10" width="16.375" style="6" customWidth="1"/>
     <col min="11" max="11" width="18.75" style="7" customWidth="1"/>
     <col min="12" max="12" width="9" style="41"/>
-    <col min="13" max="13" width="7.125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="43" customWidth="1"/>
+    <col min="13" max="14" width="7.125" style="41" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="8" customWidth="1"/>
     <col min="16" max="16" width="20.875" style="6" customWidth="1"/>
     <col min="17" max="17" width="13" style="7" customWidth="1"/>
     <col min="18" max="18" width="13.75" style="6" customWidth="1"/>
@@ -1953,13 +1949,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
       <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2008,13 +2004,13 @@
       <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2044,10 +2040,10 @@
         <v>25</v>
       </c>
       <c r="K3" s="23"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="25"/>
       <c r="Q3" s="26" t="s">
         <v>26</v>
       </c>
@@ -2070,12 +2066,12 @@
       <c r="K4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
       <c r="Q4" s="30" t="s">
         <v>29</v>
       </c>
@@ -2098,10 +2094,10 @@
       </c>
       <c r="B5" s="13"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="33"/>
       <c r="Q5" s="34" t="s">
         <v>16</v>
       </c>
@@ -2152,12 +2148,12 @@
       <c r="K6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="1" t="s">
         <v>47</v>
       </c>
@@ -2205,6 +2201,9 @@
       <c r="K7" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="L7" s="41" t="b">
+        <v>0</v>
+      </c>
       <c r="P7" s="6" t="s">
         <v>55</v>
       </c>
@@ -2248,10 +2247,10 @@
       <c r="M8" s="41">
         <v>10</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="41">
         <v>5</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="8">
         <v>10</v>
       </c>
       <c r="P8" s="6" t="s">
@@ -2293,13 +2292,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.5" style="6" customWidth="1"/>
@@ -2584,6 +2583,9 @@
         <f>_xlfn.CONCAT("castdesc_",B7)</f>
         <v>castdesc_310001</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="F7" s="6">
         <v>2000</v>
       </c>
@@ -2602,15 +2604,116 @@
       <c r="K7" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="L7" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="O7" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="P7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="R7" s="6">
+        <v>8001</v>
+      </c>
       <c r="V7" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="14"/>
+    <row r="8" spans="2:22">
+      <c r="B8" s="14">
+        <v>310002</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B8)</f>
+        <v>castname_310002</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B8)</f>
+        <v>castdesc_310002</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="6">
+        <v>9001</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="6">
+        <v>310003</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>_xlfn.CONCAT("castname_",B9)</f>
+        <v>castname_310003</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B9)</f>
+        <v>castdesc_310003</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>10001</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="2"/>
+    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>自身前方矩形选择参数</t>
+  </si>
+  <si>
+    <t>自身前方180度扇形</t>
+  </si>
+  <si>
+    <t>自身前方180度扇形参数</t>
   </si>
   <si>
     <t>##Desc</t>
@@ -1440,12 +1446,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1863,6 +1869,58 @@
       </c>
       <c r="N9" s="35" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="35">
+        <v>140001</v>
+      </c>
+      <c r="C10" s="35" t="str">
+        <f>_xlfn.CONCAT("castname_",B10)</f>
+        <v>castname_140001</v>
+      </c>
+      <c r="D10" s="35" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B10)</f>
+        <v>castdesc_140001</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="35">
+        <v>6000</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="35">
+        <v>3</v>
+      </c>
+      <c r="L10" s="35">
+        <v>6</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="35">
+        <v>800</v>
+      </c>
+      <c r="P10" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="35">
+        <v>2007</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2184,7 +2242,7 @@
         <v>castdesc_210001</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6">
         <v>2000</v>
@@ -2208,7 +2266,7 @@
         <v>55</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -2224,7 +2282,7 @@
         <v>castdesc_210002</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F8" s="6">
         <v>6000</v>
@@ -2233,13 +2291,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L8" s="41" t="b">
         <v>0</v>
@@ -2269,7 +2327,7 @@
         <v>1004</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2294,8 +2352,8 @@
   <sheetPr/>
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2338,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -2429,7 +2487,7 @@
         <v>23</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:23">
@@ -2529,7 +2587,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -2541,7 +2599,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>44</v>
@@ -2584,7 +2642,7 @@
         <v>castdesc_310001</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7" s="6">
         <v>2000</v>
@@ -2617,7 +2675,7 @@
         <v>8001</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:22">
@@ -2633,7 +2691,7 @@
         <v>castdesc_310002</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" s="6">
         <v>8000</v>
@@ -2663,7 +2721,7 @@
         <v>9001</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:22">
@@ -2679,7 +2737,7 @@
         <v>castdesc_310003</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9" s="6">
         <v>1500</v>
@@ -2712,7 +2770,7 @@
         <v>10001</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>##Desc</t>
+  </si>
+  <si>
     <t>TotalTime</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>text</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -100,9 +106,6 @@
     <t>list,int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -217,13 +220,16 @@
     <t>自身前方矩形选择参数</t>
   </si>
   <si>
+    <t>顺劈斩</t>
+  </si>
+  <si>
     <t>自身前方180度扇形</t>
   </si>
   <si>
     <t>自身前方180度扇形参数</t>
   </si>
   <si>
-    <t>##Desc</t>
+    <t>冲锋</t>
   </si>
   <si>
     <t>冰箭术</t>
@@ -1446,35 +1452,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T18" sqref="T18"/>
+      <selection pane="topRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="35" customWidth="1"/>
     <col min="2" max="3" width="20" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="35" customWidth="1"/>
-    <col min="5" max="5" width="16" style="35" customWidth="1"/>
-    <col min="6" max="9" width="18.375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="59" customWidth="1"/>
-    <col min="11" max="11" width="11" style="35" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="60" customWidth="1"/>
-    <col min="14" max="15" width="20.75" style="35" customWidth="1"/>
-    <col min="16" max="16" width="9" style="35"/>
-    <col min="17" max="17" width="34.875" style="35" customWidth="1"/>
-    <col min="18" max="20" width="31.375" style="35" customWidth="1"/>
-    <col min="21" max="21" width="21" style="35" customWidth="1"/>
-    <col min="22" max="22" width="18.25" style="35" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="35"/>
+    <col min="4" max="5" width="20.25" style="35" customWidth="1"/>
+    <col min="6" max="6" width="16" style="35" customWidth="1"/>
+    <col min="7" max="10" width="18.375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="59" customWidth="1"/>
+    <col min="12" max="12" width="11" style="35" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="60" customWidth="1"/>
+    <col min="15" max="16" width="20.75" style="35" customWidth="1"/>
+    <col min="17" max="17" width="9" style="35"/>
+    <col min="18" max="18" width="34.875" style="35" customWidth="1"/>
+    <col min="19" max="21" width="31.375" style="35" customWidth="1"/>
+    <col min="22" max="22" width="21" style="35" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="35" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:23">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1502,134 +1508,137 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="61" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="61"/>
+      <c r="P1" s="61" t="s">
+        <v>12</v>
+      </c>
       <c r="Q1" s="61"/>
       <c r="R1" s="61"/>
       <c r="S1" s="61"/>
-      <c r="T1" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="61"/>
+      <c r="U1" s="61" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:22">
+    <row r="2" s="2" customFormat="1" spans="1:23">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="62"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>23</v>
+      </c>
       <c r="Q2" s="62"/>
       <c r="R2" s="62"/>
       <c r="S2" s="62"/>
-      <c r="T2" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>23</v>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62" t="s">
+        <v>24</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:22">
+    <row r="3" s="3" customFormat="1" spans="1:23">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="23"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="O3" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="63"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
+      <c r="P3" s="63" t="s">
+        <v>27</v>
+      </c>
       <c r="Q3" s="63"/>
       <c r="R3" s="63"/>
       <c r="S3" s="63"/>
-      <c r="T3" s="63" t="s">
+      <c r="T3" s="63"/>
+      <c r="U3" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>25</v>
+      <c r="W3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:19">
+    <row r="4" s="4" customFormat="1" spans="1:20">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="J4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="O4" s="4" t="s">
+      <c r="L4" s="28" t="s">
         <v>29</v>
       </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
       <c r="P4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1642,44 +1651,47 @@
       <c r="S4" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="T4" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:19">
+    <row r="5" s="5" customFormat="1" spans="1:20">
       <c r="A5" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
-      <c r="O5" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
       <c r="P5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:22">
+    <row r="6" s="1" customFormat="1" spans="1:23">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>40</v>
@@ -1696,35 +1708,38 @@
       <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="1" t="s">
+      <c r="L6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="61"/>
+      <c r="P6" s="61" t="s">
+        <v>49</v>
+      </c>
       <c r="Q6" s="61"/>
       <c r="R6" s="61"/>
       <c r="S6" s="61"/>
-      <c r="T6" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="T6" s="61"/>
+      <c r="U6" s="61" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:22">
       <c r="B7" s="35">
         <v>110001</v>
       </c>
@@ -1736,44 +1751,45 @@
         <f>_xlfn.CONCAT("castdesc_",B7)</f>
         <v>castdesc_110001</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="6"/>
+      <c r="F7" s="35">
         <v>2000</v>
       </c>
-      <c r="F7" s="35">
+      <c r="G7" s="35">
         <v>10000</v>
       </c>
-      <c r="G7" s="35">
+      <c r="H7" s="35">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="35" t="b">
+      <c r="K7" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="35">
+      <c r="O7" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="35">
         <v>0</v>
       </c>
-      <c r="P7" s="35" t="b">
+      <c r="Q7" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="S7" s="35">
+      <c r="T7" s="35">
         <v>40005</v>
       </c>
-      <c r="U7" s="35" t="s">
-        <v>56</v>
+      <c r="V7" s="35" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:22">
       <c r="B8" s="35">
         <v>120001</v>
       </c>
@@ -1785,50 +1801,51 @@
         <f>_xlfn.CONCAT("castdesc_",B8)</f>
         <v>castdesc_120001</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="6"/>
+      <c r="F8" s="35">
         <v>2000</v>
       </c>
-      <c r="F8" s="35">
+      <c r="G8" s="35">
         <v>10000</v>
       </c>
-      <c r="G8" s="35">
+      <c r="H8" s="35">
         <v>0</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="I8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="35">
+        <v>5</v>
+      </c>
+      <c r="N8" s="60">
+        <v>5</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="35">
+        <v>2005</v>
+      </c>
+      <c r="V8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="35">
-        <v>5</v>
-      </c>
-      <c r="M8" s="60">
-        <v>5</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="35">
-        <v>0</v>
-      </c>
-      <c r="P8" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="35">
-        <v>2005</v>
-      </c>
-      <c r="U8" s="35" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:15">
       <c r="B9" s="35">
         <v>130001</v>
       </c>
@@ -1840,38 +1857,38 @@
         <f>_xlfn.CONCAT("castdesc_",B9)</f>
         <v>castdesc_130001</v>
       </c>
-      <c r="E9" s="35">
+      <c r="F9" s="35">
         <v>2000</v>
       </c>
-      <c r="F9" s="35">
+      <c r="G9" s="35">
         <v>10000</v>
       </c>
-      <c r="G9" s="35">
+      <c r="H9" s="35">
         <v>0</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>59</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="35">
         <v>3</v>
       </c>
-      <c r="L9" s="35">
+      <c r="M9" s="35">
         <v>6</v>
       </c>
-      <c r="M9" s="60">
+      <c r="N9" s="60">
         <v>5</v>
       </c>
-      <c r="N9" s="35" t="s">
-        <v>55</v>
+      <c r="O9" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:22">
       <c r="B10" s="35">
         <v>140001</v>
       </c>
@@ -1883,57 +1900,106 @@
         <f>_xlfn.CONCAT("castdesc_",B10)</f>
         <v>castdesc_140001</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="35">
         <v>1500</v>
       </c>
-      <c r="F10" s="35">
+      <c r="G10" s="35">
         <v>6000</v>
       </c>
-      <c r="G10" s="35">
+      <c r="H10" s="35">
         <v>0</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>62</v>
-      </c>
       <c r="I10" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="35">
+        <v>64</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="35">
         <v>3</v>
       </c>
-      <c r="L10" s="35">
+      <c r="M10" s="35">
         <v>6</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="O10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="35">
+        <v>800</v>
+      </c>
+      <c r="Q10" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="35">
+        <v>2007</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="35">
+        <v>150001</v>
+      </c>
+      <c r="C11" s="35" t="str">
+        <f>_xlfn.CONCAT("castname_",B11)</f>
+        <v>castname_150001</v>
+      </c>
+      <c r="D11" s="35" t="str">
+        <f>_xlfn.CONCAT("castdesc_",B11)</f>
+        <v>castdesc_150001</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="35">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="35">
+        <v>12000</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="35">
-        <v>800</v>
-      </c>
-      <c r="P10" s="35" t="b">
+      <c r="L11" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" s="35">
-        <v>2007</v>
-      </c>
-      <c r="U10" s="35" t="s">
+      <c r="O11" s="35" t="s">
         <v>56</v>
+      </c>
+      <c r="P11" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:T6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1945,8 +2011,8 @@
   <sheetPr/>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1990,112 +2056,112 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
       <c r="N1" s="44"/>
       <c r="O1" s="45"/>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U1" s="36"/>
       <c r="V1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:24">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
       <c r="N2" s="48"/>
       <c r="O2" s="49"/>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U2" s="37"/>
       <c r="V2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:24">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="50"/>
@@ -2103,17 +2169,17 @@
       <c r="N3" s="51"/>
       <c r="O3" s="25"/>
       <c r="Q3" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U3" s="38"/>
       <c r="V3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="X3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:21">
@@ -2122,33 +2188,33 @@
       </c>
       <c r="B4" s="12"/>
       <c r="K4" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="53"/>
       <c r="O4" s="54"/>
       <c r="Q4" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:21">
       <c r="A5" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13"/>
       <c r="K5" s="31"/>
@@ -2157,76 +2223,76 @@
       <c r="N5" s="56"/>
       <c r="O5" s="33"/>
       <c r="Q5" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:24">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="57"/>
       <c r="N6" s="58"/>
       <c r="O6" s="17"/>
       <c r="P6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U6" s="36"/>
       <c r="V6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:23">
@@ -2242,7 +2308,7 @@
         <v>castdesc_210001</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="6">
         <v>2000</v>
@@ -2251,22 +2317,22 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="41" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -2282,7 +2348,7 @@
         <v>castdesc_210002</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="6">
         <v>6000</v>
@@ -2291,13 +2357,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L8" s="41" t="b">
         <v>0</v>
@@ -2312,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
@@ -2327,7 +2393,7 @@
         <v>1004</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2396,127 +2462,127 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="17"/>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T1" s="36"/>
       <c r="U1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:23">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="21"/>
       <c r="O2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T2" s="37"/>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:23">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="25"/>
       <c r="P3" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T3" s="38"/>
       <c r="U3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="W3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:20">
@@ -2525,32 +2591,32 @@
       </c>
       <c r="B4" s="12"/>
       <c r="K4" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="29"/>
       <c r="P4" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:20">
       <c r="A5" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13"/>
       <c r="K5" s="31"/>
@@ -2558,75 +2624,75 @@
       <c r="M5" s="32"/>
       <c r="N5" s="33"/>
       <c r="P5" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:23">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="17"/>
       <c r="O6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T6" s="36"/>
       <c r="U6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:22">
@@ -2642,7 +2708,7 @@
         <v>castdesc_310001</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F7" s="6">
         <v>2000</v>
@@ -2654,19 +2720,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" s="7">
         <v>2000</v>
@@ -2675,7 +2741,7 @@
         <v>8001</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:22">
@@ -2691,7 +2757,7 @@
         <v>castdesc_310002</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6">
         <v>8000</v>
@@ -2703,25 +2769,25 @@
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" s="6">
         <v>9001</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:22">
@@ -2737,7 +2803,7 @@
         <v>castdesc_310003</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F9" s="6">
         <v>1500</v>
@@ -2749,19 +2815,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="6" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7">
         <v>0</v>
@@ -2770,7 +2836,7 @@
         <v>10001</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -73,163 +73,160 @@
     <t>FinishActions</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>MessageNotifyType</t>
+  </si>
+  <si>
+    <t>list,CastHitInfo</t>
+  </si>
+  <si>
+    <t>list,int</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>HitSelf</t>
+  </si>
+  <si>
+    <t>HitAction</t>
+  </si>
+  <si>
+    <t>TargetBuff</t>
+  </si>
+  <si>
+    <t>SelfBuff</t>
+  </si>
+  <si>
+    <t>int?#ref=ActionConfigCategory</t>
+  </si>
+  <si>
+    <t>int?#ref=BuffConfigCategory</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>技能编号</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>技能总时长</t>
+  </si>
+  <si>
+    <t>技能释放CD</t>
+  </si>
+  <si>
+    <t>持续施法</t>
+  </si>
+  <si>
+    <t>技能选择目标类型</t>
+  </si>
+  <si>
+    <t>技能释放阵营</t>
+  </si>
+  <si>
+    <t>技能作用参数类型</t>
+  </si>
+  <si>
+    <t>技能作用参数</t>
+  </si>
+  <si>
+    <t>通知客户端方式</t>
+  </si>
+  <si>
+    <t>命中信息</t>
+  </si>
+  <si>
+    <t>结束行为</t>
+  </si>
+  <si>
+    <t>单体</t>
+  </si>
+  <si>
+    <t>友方</t>
+  </si>
+  <si>
+    <t>单体选择参数</t>
+  </si>
+  <si>
+    <t>通知视野内所有玩家</t>
+  </si>
+  <si>
+    <t>自身圆形范围</t>
+  </si>
+  <si>
+    <t>自身圆形选择参数</t>
+  </si>
+  <si>
+    <t>前方矩形范围</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>自身前方矩形选择参数</t>
+  </si>
+  <si>
+    <t>顺劈斩</t>
+  </si>
+  <si>
+    <t>自身前方180度扇形</t>
+  </si>
+  <si>
+    <t>自身前方180度扇形参数</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
     <t>CastStartAnimation</t>
   </si>
   <si>
     <t>CastHitAnimation</t>
   </si>
   <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>MessageNotifyType</t>
-  </si>
-  <si>
-    <t>list,CastHitInfo</t>
-  </si>
-  <si>
-    <t>list,int</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>$type</t>
-  </si>
-  <si>
-    <t>$value</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>HitSelf</t>
-  </si>
-  <si>
-    <t>HitAction</t>
-  </si>
-  <si>
-    <t>TargetBuff</t>
-  </si>
-  <si>
-    <t>SelfBuff</t>
-  </si>
-  <si>
-    <t>int?#ref=ActionConfigCategory</t>
-  </si>
-  <si>
-    <t>int?#ref=BuffConfigCategory</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>技能编号</t>
-  </si>
-  <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
-    <t>技能总时长</t>
-  </si>
-  <si>
-    <t>技能释放CD</t>
-  </si>
-  <si>
-    <t>持续施法</t>
-  </si>
-  <si>
-    <t>技能选择目标类型</t>
-  </si>
-  <si>
-    <t>技能释放阵营</t>
-  </si>
-  <si>
-    <t>技能作用参数类型</t>
-  </si>
-  <si>
-    <t>技能作用参数</t>
-  </si>
-  <si>
-    <t>通知客户端方式</t>
-  </si>
-  <si>
-    <t>命中信息</t>
-  </si>
-  <si>
-    <t>结束行为</t>
-  </si>
-  <si>
     <t>技能起手动画</t>
   </si>
   <si>
     <t>技能受击动画</t>
-  </si>
-  <si>
-    <t>单体</t>
-  </si>
-  <si>
-    <t>友方</t>
-  </si>
-  <si>
-    <t>单体选择参数</t>
-  </si>
-  <si>
-    <t>通知视野内所有玩家</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>自身圆形范围</t>
-  </si>
-  <si>
-    <t>自身圆形选择参数</t>
-  </si>
-  <si>
-    <t>前方矩形范围</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>自身前方矩形选择参数</t>
-  </si>
-  <si>
-    <t>顺劈斩</t>
-  </si>
-  <si>
-    <t>自身前方180度扇形</t>
-  </si>
-  <si>
-    <t>自身前方180度扇形参数</t>
-  </si>
-  <si>
-    <t>冲锋</t>
   </si>
   <si>
     <t>冰箭术</t>
@@ -933,7 +930,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,9 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1452,35 +1446,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R11" sqref="R11"/>
+      <selection pane="topRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="35" customWidth="1"/>
-    <col min="2" max="3" width="20" style="35" customWidth="1"/>
-    <col min="4" max="5" width="20.25" style="35" customWidth="1"/>
-    <col min="6" max="6" width="16" style="35" customWidth="1"/>
-    <col min="7" max="10" width="18.375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="59" customWidth="1"/>
-    <col min="12" max="12" width="11" style="35" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="60" customWidth="1"/>
-    <col min="15" max="16" width="20.75" style="35" customWidth="1"/>
-    <col min="17" max="17" width="9" style="35"/>
-    <col min="18" max="18" width="34.875" style="35" customWidth="1"/>
-    <col min="19" max="21" width="31.375" style="35" customWidth="1"/>
-    <col min="22" max="22" width="21" style="35" customWidth="1"/>
-    <col min="23" max="23" width="18.25" style="35" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="12.75" style="34" customWidth="1"/>
+    <col min="2" max="3" width="20" style="34" customWidth="1"/>
+    <col min="4" max="5" width="20.25" style="34" customWidth="1"/>
+    <col min="6" max="6" width="16" style="34" customWidth="1"/>
+    <col min="7" max="10" width="18.375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="58" customWidth="1"/>
+    <col min="12" max="12" width="11" style="34" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="59" customWidth="1"/>
+    <col min="15" max="16" width="20.75" style="34" customWidth="1"/>
+    <col min="17" max="17" width="9" style="34"/>
+    <col min="18" max="18" width="34.875" style="34" customWidth="1"/>
+    <col min="19" max="21" width="31.375" style="34" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1511,56 +1503,50 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:21">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:23">
-      <c r="A2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
@@ -1568,62 +1554,50 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="62" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:21">
+      <c r="A3" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:23">
-      <c r="A3" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="P3" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="P3" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:20">
@@ -1631,361 +1605,346 @@
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="P4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="Q4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:20">
       <c r="A5" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
       <c r="P5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:21">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="5" t="s">
-        <v>36</v>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:23">
-      <c r="A6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="35">
+    <row r="7" spans="2:20">
+      <c r="B7" s="34">
         <v>110001</v>
       </c>
-      <c r="C7" s="35" t="str">
+      <c r="C7" s="34" t="str">
         <f>_xlfn.CONCAT("castname_",B7)</f>
         <v>castname_110001</v>
       </c>
-      <c r="D7" s="35" t="str">
+      <c r="D7" s="34" t="str">
         <f>_xlfn.CONCAT("castdesc_",B7)</f>
         <v>castdesc_110001</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>2000</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>10000</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="35" t="b">
+        <v>49</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="O7" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="35">
+      <c r="O7" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="34">
         <v>0</v>
       </c>
-      <c r="Q7" s="35" t="b">
+      <c r="Q7" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
         <v>40005</v>
       </c>
-      <c r="V7" s="35" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="35">
+    <row r="8" spans="2:18">
+      <c r="B8" s="34">
         <v>120001</v>
       </c>
-      <c r="C8" s="35" t="str">
+      <c r="C8" s="34" t="str">
         <f>_xlfn.CONCAT("castname_",B8)</f>
         <v>castname_120001</v>
       </c>
-      <c r="D8" s="35" t="str">
+      <c r="D8" s="34" t="str">
         <f>_xlfn.CONCAT("castdesc_",B8)</f>
         <v>castdesc_120001</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>2000</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>10000</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>0</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="35" t="b">
+      <c r="L8" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="34">
         <v>5</v>
       </c>
-      <c r="N8" s="60">
+      <c r="N8" s="59">
         <v>5</v>
       </c>
-      <c r="O8" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="35">
+      <c r="O8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="34">
         <v>0</v>
       </c>
-      <c r="Q8" s="35" t="b">
+      <c r="Q8" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="34">
         <v>2005</v>
-      </c>
-      <c r="V8" s="35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>130001</v>
       </c>
-      <c r="C9" s="35" t="str">
+      <c r="C9" s="34" t="str">
         <f>_xlfn.CONCAT("castname_",B9)</f>
         <v>castname_130001</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="34" t="str">
         <f>_xlfn.CONCAT("castdesc_",B9)</f>
         <v>castdesc_130001</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>2000</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <v>10000</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>0</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="35">
+      <c r="I9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="34">
         <v>3</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="34">
         <v>6</v>
       </c>
-      <c r="N9" s="60">
+      <c r="N9" s="59">
         <v>5</v>
       </c>
-      <c r="O9" s="35" t="s">
-        <v>56</v>
+      <c r="O9" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="35">
+    <row r="10" spans="2:18">
+      <c r="B10" s="34">
         <v>140001</v>
       </c>
-      <c r="C10" s="35" t="str">
+      <c r="C10" s="34" t="str">
         <f>_xlfn.CONCAT("castname_",B10)</f>
         <v>castname_140001</v>
       </c>
-      <c r="D10" s="35" t="str">
+      <c r="D10" s="34" t="str">
         <f>_xlfn.CONCAT("castdesc_",B10)</f>
         <v>castdesc_140001</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="35">
+      <c r="E10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="34">
         <v>1500</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>6000</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>0</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="35">
+      <c r="I10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="34">
         <v>3</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <v>6</v>
       </c>
-      <c r="O10" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="35">
+      <c r="O10" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="34">
         <v>800</v>
       </c>
-      <c r="Q10" s="35" t="b">
+      <c r="Q10" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="R10" s="35">
+      <c r="R10" s="34">
         <v>2007</v>
-      </c>
-      <c r="V10" s="35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>150001</v>
       </c>
-      <c r="C11" s="35" t="str">
+      <c r="C11" s="34" t="str">
         <f>_xlfn.CONCAT("castname_",B11)</f>
         <v>castname_150001</v>
       </c>
-      <c r="D11" s="35" t="str">
+      <c r="D11" s="34" t="str">
         <f>_xlfn.CONCAT("castdesc_",B11)</f>
         <v>castdesc_150001</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="35">
+      <c r="E11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="34">
         <v>1500</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <v>12000</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="35" t="b">
+        <v>49</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="35">
+      <c r="O11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="34">
         <v>0</v>
       </c>
-      <c r="Q11" s="35" t="b">
+      <c r="Q11" s="34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2027,8 +1986,8 @@
     <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="6" customWidth="1"/>
     <col min="11" max="11" width="18.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9" style="41"/>
-    <col min="13" max="14" width="7.125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="9" style="40"/>
+    <col min="13" max="14" width="7.125" style="40" customWidth="1"/>
     <col min="15" max="15" width="7.125" style="8" customWidth="1"/>
     <col min="16" max="16" width="20.875" style="6" customWidth="1"/>
     <col min="17" max="17" width="13" style="7" customWidth="1"/>
@@ -2073,54 +2032,54 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="36"/>
+      <c r="U1" s="35"/>
       <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:24">
       <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
@@ -2128,58 +2087,58 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
       <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="36"/>
+      <c r="V2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="37"/>
-      <c r="V2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:24">
       <c r="A3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="24"/>
+      <c r="Q3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="37"/>
       <c r="V3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:21">
@@ -2187,112 +2146,112 @@
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="Q4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="R4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="Q4" s="30" t="s">
+      <c r="S4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="38" t="s">
         <v>32</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="39" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:21">
       <c r="A5" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="33"/>
-      <c r="Q5" s="34" t="s">
-        <v>17</v>
+      <c r="K5" s="30"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="32"/>
+      <c r="Q5" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="40" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:24">
       <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="Q6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="1" t="s">
+      <c r="U6" s="35"/>
+      <c r="V6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="W6" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:23">
@@ -2308,7 +2267,7 @@
         <v>castdesc_210001</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="6">
         <v>2000</v>
@@ -2317,22 +2276,22 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="41" t="b">
+        <v>51</v>
+      </c>
+      <c r="L7" s="40" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:23">
@@ -2348,7 +2307,7 @@
         <v>castdesc_210002</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="6">
         <v>6000</v>
@@ -2357,28 +2316,28 @@
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="41" t="b">
+      <c r="L8" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="40">
         <v>10</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="40">
         <v>5</v>
       </c>
       <c r="O8" s="8">
         <v>10</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
@@ -2393,7 +2352,7 @@
         <v>1004</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2479,53 +2438,53 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="36"/>
+      <c r="T1" s="35"/>
       <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:23">
       <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
@@ -2533,56 +2492,56 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="36"/>
+      <c r="U2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:23">
       <c r="A3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="P3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="P3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="37"/>
       <c r="U3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:20">
@@ -2590,109 +2549,109 @@
         <v>0</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="P4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="Q4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="P4" s="30" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="38" t="s">
         <v>32</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:20">
       <c r="A5" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="P5" s="34" t="s">
-        <v>17</v>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="P5" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:23">
       <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="P6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="1" t="s">
+      <c r="T6" s="35"/>
+      <c r="U6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:22">
@@ -2708,7 +2667,7 @@
         <v>castdesc_310001</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="6">
         <v>2000</v>
@@ -2720,19 +2679,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7">
         <v>2000</v>
@@ -2741,11 +2700,11 @@
         <v>8001</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="14">
+      <c r="B8" s="6">
         <v>310002</v>
       </c>
       <c r="C8" s="6" t="str">
@@ -2757,7 +2716,7 @@
         <v>castdesc_310002</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="6">
         <v>8000</v>
@@ -2769,25 +2728,25 @@
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U8" s="6">
         <v>9001</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:22">
@@ -2803,7 +2762,7 @@
         <v>castdesc_310003</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="6">
         <v>1500</v>
@@ -2815,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L9" s="6" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7">
         <v>0</v>
@@ -2836,7 +2795,7 @@
         <v>10001</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -1451,7 +1451,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W14" sqref="W14"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="809" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="6" r:id="rId1"/>
     <sheet name="法师" sheetId="7" r:id="rId2"/>
     <sheet name="牧师" sheetId="8" r:id="rId3"/>
+    <sheet name="骑士" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -37,12 +38,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>##Desc</t>
   </si>
   <si>
@@ -79,9 +74,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -103,9 +95,6 @@
     <t>##group</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -124,12 +113,12 @@
     <t>HitAction</t>
   </si>
   <si>
+    <t>SelfBuff</t>
+  </si>
+  <si>
     <t>TargetBuff</t>
   </si>
   <si>
-    <t>SelfBuff</t>
-  </si>
-  <si>
     <t>int?#ref=ActionConfigCategory</t>
   </si>
   <si>
@@ -142,9 +131,6 @@
     <t>技能编号</t>
   </si>
   <si>
-    <t>技能名称</t>
-  </si>
-  <si>
     <t>技能描述</t>
   </si>
   <si>
@@ -217,24 +203,9 @@
     <t>冲锋</t>
   </si>
   <si>
-    <t>CastStartAnimation</t>
-  </si>
-  <si>
-    <t>CastHitAnimation</t>
-  </si>
-  <si>
-    <t>技能起手动画</t>
-  </si>
-  <si>
-    <t>技能受击动画</t>
-  </si>
-  <si>
     <t>冰箭术</t>
   </si>
   <si>
-    <t>sing</t>
-  </si>
-  <si>
     <t>暴风雪</t>
   </si>
   <si>
@@ -244,9 +215,6 @@
     <t>指定圆形选择参数</t>
   </si>
   <si>
-    <t>string?</t>
-  </si>
-  <si>
     <t>技能描述（不导出）</t>
   </si>
   <si>
@@ -260,6 +228,12 @@
   </si>
   <si>
     <t>祛病术</t>
+  </si>
+  <si>
+    <t>真言术：盾</t>
+  </si>
+  <si>
+    <t>圣盾术</t>
   </si>
 </sst>
 </file>
@@ -974,16 +948,73 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -995,89 +1026,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1111,13 +1085,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1446,33 +1420,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="C1" sqref="C$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="34" customWidth="1"/>
-    <col min="2" max="3" width="20" style="34" customWidth="1"/>
-    <col min="4" max="5" width="20.25" style="34" customWidth="1"/>
-    <col min="6" max="6" width="16" style="34" customWidth="1"/>
-    <col min="7" max="10" width="18.375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="58" customWidth="1"/>
-    <col min="12" max="12" width="11" style="34" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="34" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="59" customWidth="1"/>
-    <col min="15" max="16" width="20.75" style="34" customWidth="1"/>
-    <col min="17" max="17" width="9" style="34"/>
-    <col min="18" max="18" width="34.875" style="34" customWidth="1"/>
-    <col min="19" max="21" width="31.375" style="34" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="12.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="20" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="35" customWidth="1"/>
+    <col min="4" max="4" width="16" style="35" customWidth="1"/>
+    <col min="5" max="8" width="18.375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="58" customWidth="1"/>
+    <col min="10" max="10" width="11" style="35" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="59" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="35" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="35" customWidth="1"/>
+    <col min="15" max="15" width="9" style="35"/>
+    <col min="16" max="16" width="32.375" style="35" customWidth="1"/>
+    <col min="17" max="18" width="29.625" style="35" customWidth="1"/>
+    <col min="19" max="19" width="13.75" style="35" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1497,468 +1473,401 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="60" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
-      <c r="A2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="N2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="2" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:19">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="B3" s="11"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="N3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:18">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="I4" s="26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:21">
-      <c r="A3" s="11" t="s">
+      <c r="J4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="P3" s="62" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:20">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="K4" s="26" t="s">
+      <c r="P4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:20">
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:18">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="P5" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:19">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:21">
-      <c r="A6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="N6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="14" t="s">
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="35">
+        <v>110001</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="35">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="H7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="1" t="s">
+      <c r="I7" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="60" t="s">
+      <c r="J7" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60" t="s">
+      <c r="N7" s="35">
+        <v>0</v>
+      </c>
+      <c r="O7" s="35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="35">
+        <v>120001</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="35">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="34">
-        <v>110001</v>
-      </c>
-      <c r="C7" s="34" t="str">
-        <f>_xlfn.CONCAT("castname_",B7)</f>
-        <v>castname_110001</v>
-      </c>
-      <c r="D7" s="34" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B7)</f>
-        <v>castdesc_110001</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="34">
+      <c r="H8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="35">
+        <v>5</v>
+      </c>
+      <c r="L8" s="59">
+        <v>5</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="35">
+        <v>0</v>
+      </c>
+      <c r="O8" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="35">
+        <v>130001</v>
+      </c>
+      <c r="D9" s="35">
         <v>2000</v>
       </c>
-      <c r="G7" s="34">
+      <c r="E9" s="35">
         <v>10000</v>
       </c>
-      <c r="H7" s="34">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="34" t="s">
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="H9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="34" t="s">
+      <c r="I9" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="34">
-        <v>40005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="34">
-        <v>120001</v>
-      </c>
-      <c r="C8" s="34" t="str">
-        <f>_xlfn.CONCAT("castname_",B8)</f>
-        <v>castname_120001</v>
-      </c>
-      <c r="D8" s="34" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B8)</f>
-        <v>castdesc_120001</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="34">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="34">
-        <v>10000</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="J9" s="35">
+        <v>3</v>
+      </c>
+      <c r="K9" s="35">
+        <v>6</v>
+      </c>
+      <c r="L9" s="59">
+        <v>5</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="35">
+        <v>140001</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="58" t="s">
+      <c r="D10" s="35">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="35">
+        <v>6000</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="34">
-        <v>5</v>
-      </c>
-      <c r="N8" s="59">
-        <v>5</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="34">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="34">
-        <v>130001</v>
-      </c>
-      <c r="C9" s="34" t="str">
-        <f>_xlfn.CONCAT("castname_",B9)</f>
-        <v>castname_130001</v>
-      </c>
-      <c r="D9" s="34" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B9)</f>
-        <v>castdesc_130001</v>
-      </c>
-      <c r="F9" s="34">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="34">
-        <v>10000</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34" t="s">
+      <c r="H10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J10" s="35">
+        <v>3</v>
+      </c>
+      <c r="K10" s="35">
+        <v>6</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="35">
+        <v>800</v>
+      </c>
+      <c r="O10" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="35">
+        <v>150001</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="34">
-        <v>3</v>
-      </c>
-      <c r="M9" s="34">
-        <v>6</v>
-      </c>
-      <c r="N9" s="59">
-        <v>5</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="34">
-        <v>140001</v>
-      </c>
-      <c r="C10" s="34" t="str">
-        <f>_xlfn.CONCAT("castname_",B10)</f>
-        <v>castname_140001</v>
-      </c>
-      <c r="D10" s="34" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B10)</f>
-        <v>castdesc_140001</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="D11" s="35">
         <v>1500</v>
       </c>
-      <c r="G10" s="34">
-        <v>6000</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="34">
-        <v>3</v>
-      </c>
-      <c r="M10" s="34">
-        <v>6</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="34">
-        <v>800</v>
-      </c>
-      <c r="Q10" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" s="34">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="34">
-        <v>150001</v>
-      </c>
-      <c r="C11" s="34" t="str">
-        <f>_xlfn.CONCAT("castname_",B11)</f>
-        <v>castname_150001</v>
-      </c>
-      <c r="D11" s="34" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B11)</f>
-        <v>castdesc_150001</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="34">
-        <v>1500</v>
-      </c>
-      <c r="G11" s="34">
+      <c r="E11" s="35">
         <v>12000</v>
       </c>
-      <c r="H11" s="34">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="58" t="s">
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="34" t="b">
+      <c r="I11" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="35">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1968,40 +1877,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E8"/>
+      <selection activeCell="C1" sqref="C$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="6" customWidth="1"/>
-    <col min="4" max="5" width="27.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9" style="40"/>
-    <col min="13" max="14" width="7.125" style="40" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="20.875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.75" style="6" customWidth="1"/>
-    <col min="19" max="19" width="32.375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="29.625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="34.125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="13.75" style="6" customWidth="1"/>
-    <col min="23" max="23" width="20" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.25" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="27.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="44"/>
+    <col min="11" max="12" width="7.125" style="44" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="20.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13" style="7" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="6" customWidth="1"/>
+    <col min="17" max="19" width="32.375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="13.75" style="6" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:24">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2026,346 +1930,285 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="O1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="17" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:20">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:24">
-      <c r="A2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:20">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="24"/>
+      <c r="O3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:19">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="I4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="O4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:19">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="31"/>
+      <c r="O5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:24">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="24"/>
-      <c r="Q3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="37"/>
-      <c r="V3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:21">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="K4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="Q4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="S5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:20">
+      <c r="A6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:21">
-      <c r="A5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="32"/>
-      <c r="Q5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:24">
-      <c r="A6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="O6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23">
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="6">
         <v>210001</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B7)</f>
-        <v>castname_210001</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B7)</f>
-        <v>castdesc_210001</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>66</v>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2000</v>
       </c>
       <c r="F7" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23">
+      <c r="I7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="6">
         <v>210002</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B8)</f>
-        <v>castname_210002</v>
-      </c>
-      <c r="D8" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B8)</f>
-        <v>castdesc_210002</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>68</v>
+      <c r="C8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="6">
+        <v>6000</v>
       </c>
       <c r="F8" s="6">
-        <v>6000</v>
-      </c>
-      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40">
+      <c r="G8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
         <v>10</v>
       </c>
-      <c r="N8" s="40">
+      <c r="L8" s="44">
         <v>5</v>
       </c>
-      <c r="O8" s="8">
+      <c r="M8" s="8">
         <v>10</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="N8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>2004</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1004</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="O6:S6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2375,39 +2218,34 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="29" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="18.375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="17.125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="20.75" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="7"/>
-    <col min="17" max="17" width="9" style="6"/>
-    <col min="18" max="18" width="32.375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="29.625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="29.625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="13.75" style="6" customWidth="1"/>
-    <col min="22" max="22" width="20" style="6" customWidth="1"/>
-    <col min="23" max="23" width="18.25" style="6" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="29" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="18.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6"/>
+    <col min="12" max="12" width="17.125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.75" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9" style="6"/>
+    <col min="16" max="18" width="32.375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="13.75" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2432,383 +2270,657 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="17" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:23">
-      <c r="A2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="N2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="2" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:19">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="B3" s="11"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="N3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="2" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:18">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="I4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:23">
-      <c r="A3" s="11" t="s">
+      <c r="J4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="P3" s="25" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:20">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="K4" s="26" t="s">
+      <c r="P4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="P4" s="29" t="s">
+      <c r="R4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:20">
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:18">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="P5" s="33" t="s">
-        <v>15</v>
+      <c r="N5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:19">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:23">
-      <c r="A6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22">
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="6">
         <v>310001</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B7)</f>
-        <v>castname_310001</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B7)</f>
-        <v>castdesc_310001</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>74</v>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
       </c>
       <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="7">
         <v>2000</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="P7" s="6">
         <v>8001</v>
       </c>
-      <c r="V7" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="6">
         <v>310002</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B8)</f>
-        <v>castname_310002</v>
-      </c>
-      <c r="D8" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B8)</f>
-        <v>castdesc_310002</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>75</v>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
       </c>
       <c r="F8" s="6">
-        <v>8000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="6">
+      <c r="G8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="6">
         <v>9001</v>
       </c>
-      <c r="V8" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22">
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="6">
         <v>310003</v>
       </c>
-      <c r="C9" s="6" t="str">
-        <f>_xlfn.CONCAT("castname_",B9)</f>
-        <v>castname_310003</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f>_xlfn.CONCAT("castdesc_",B9)</f>
-        <v>castdesc_310003</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>76</v>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
       </c>
       <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="6">
+        <v>310004</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="6">
         <v>1500</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>10001</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>67</v>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>40010</v>
+      </c>
+      <c r="R10" s="6">
+        <v>40011</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:R6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="2" width="9" style="6"/>
+    <col min="3" max="4" width="15.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="7" customWidth="1"/>
+    <col min="10" max="11" width="9" style="6"/>
+    <col min="12" max="12" width="9" style="8"/>
+    <col min="13" max="13" width="20.75" style="6" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="6" customWidth="1"/>
+    <col min="16" max="18" width="32.375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="13.75" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:19">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:19">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:19">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:18">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="I4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:18">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:19">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="6">
+        <v>410001</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="6">
+        <f>10*60*1000</f>
+        <v>600000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6">
+        <v>40009</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="809" activeTab="3"/>
+    <workbookView windowWidth="25590" windowHeight="10740" tabRatio="809" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="战士" sheetId="6" r:id="rId1"/>
@@ -2631,7 +2631,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J4" sqref="J4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
